--- a/Excelusssy.xlsx
+++ b/Excelusssy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shae\Documents\GitHub\Decision_Theory_Project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF856A3-FF04-4F63-BE9B-E401EEC61F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1273E3-A3DA-4FF4-8FCF-A234C37D305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20B947D8-2139-4EA5-AEF9-9BF7A76F909E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{20B947D8-2139-4EA5-AEF9-9BF7A76F909E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Data</t>
   </si>
@@ -412,7 +412,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D30D6C-9A1C-4992-A219-491928638FE5}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>5.26</f>
+        <v>5.26</v>
+      </c>
+      <c r="B2">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f>25</f>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <f>10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A51F6-EDD8-4CB8-BA5A-B06F5AC3FCC8}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -440,135 +545,445 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>5.26</f>
-        <v>5.26</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="B2">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <f>0.0025</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>0.003</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <f>0.00044</f>
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>0.025</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="C2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>20</f>
-        <v>20</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <f>0.0044</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="D4">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="F2">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <f>20</f>
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>10</f>
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <f>10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>200</f>
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <f>100</f>
-        <v>100</v>
-      </c>
       <c r="E4">
-        <f>60</f>
-        <v>60</v>
+        <f>0.06</f>
+        <v>0.06</v>
       </c>
       <c r="F4">
-        <f>100</f>
-        <v>100</v>
+        <f>0.044</f>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A51F6-EDD8-4CB8-BA5A-B06F5AC3FCC8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FEF6AB-2732-4687-8668-9B58EDA3B26D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>2698510</f>
+        <v>2698510</v>
+      </c>
+      <c r="B2">
+        <f>300000</f>
+        <v>300000</v>
+      </c>
+      <c r="C2">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D2">
+        <f>30000000</f>
+        <v>30000000</v>
+      </c>
+      <c r="E2">
+        <f>2500000</f>
+        <v>2500000</v>
+      </c>
+      <c r="F2">
+        <f>5000000</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="C3">
+        <f>2500000</f>
+        <v>2500000</v>
+      </c>
+      <c r="D3">
+        <f>45000000</f>
+        <v>45000000</v>
+      </c>
+      <c r="E3">
+        <f>4200000</f>
+        <v>4200000</v>
+      </c>
+      <c r="F3">
+        <f>8075000</f>
+        <v>8075000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>1800000</f>
+        <v>1800000</v>
+      </c>
+      <c r="C4">
+        <f>5000000</f>
+        <v>5000000</v>
+      </c>
+      <c r="D4">
+        <f>60000000</f>
+        <v>60000000</v>
+      </c>
+      <c r="E4">
+        <f>7500000</f>
+        <v>7500000</v>
+      </c>
+      <c r="F4">
+        <f>12000000</f>
+        <v>12000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10454F4F-C87C-41F3-805A-BAF64691C29B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1F656-AD77-4E7C-82C9-2B162403E043}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5CC22-985E-48B5-9801-9CB236517854}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>1101</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>4000</v>
+      </c>
+      <c r="C3">
+        <v>2760</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>4550</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
+      <c r="F4">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>